--- a/data/CS7/Market Data/CS7_market_data_2040.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE66B32-4CF9-438F-8DF8-804C0E4FA4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4692BEC5-FD39-4AA4-8ED8-24DBCBB5FDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS7/Market Data/CS7_market_data_2040.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4692BEC5-FD39-4AA4-8ED8-24DBCBB5FDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9751BD-57CF-467F-9457-B412BBABB38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS7/Market Data/CS7_market_data_2040.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9751BD-57CF-467F-9457-B412BBABB38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82C1DDC-2C4C-4029-8764-E3B48E43B533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS7/Market Data/CS7_market_data_2040.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82C1DDC-2C4C-4029-8764-E3B48E43B533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611BE74A-1DD5-4C4B-A93A-0D419DD796C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS7/Market Data/CS7_market_data_2040.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611BE74A-1DD5-4C4B-A93A-0D419DD796C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8738C9-F978-49EB-BE9C-001D5420DE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31935" yWindow="-11145" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2245,16 +2245,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.6</v>
       </c>
       <c r="D1" s="1">
-        <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="E1" s="1">
-        <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS7/Market Data/CS7_market_data_2040.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8738C9-F978-49EB-BE9C-001D5420DE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF75733C-86F7-43BC-98F8-F7B12AF1060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31935" yWindow="-11145" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2245,13 +2245,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>0.6</v>
+        <f>1/$B$1</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <v>0.2</v>
+        <f t="shared" ref="D1:E1" si="0">1/$B$1</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS7/Market Data/CS7_market_data_2040.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF75733C-86F7-43BC-98F8-F7B12AF1060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C599BD-A7BE-4490-8C87-D9EA24B7A0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS7/Market Data/CS7_market_data_2040.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2040.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C599BD-A7BE-4490-8C87-D9EA24B7A0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D126C3-7F02-41AB-B185-13DCBFC7E6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="73440" yWindow="4395" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
